--- a/Лабы.xlsx
+++ b/Лабы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\Labs\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318011D9-2A77-4AC4-9C27-310AFFA98CA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CBC1B5-3AFC-414E-BFF6-96FD0E67EC94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Предметы/Недели</t>
   </si>
@@ -76,13 +76,34 @@
   </si>
   <si>
     <t>Готово</t>
+  </si>
+  <si>
+    <t>Конец апреля:</t>
+  </si>
+  <si>
+    <t>Тестирование: 17</t>
+  </si>
+  <si>
+    <t>WinAPI: 8</t>
+  </si>
+  <si>
+    <t>UNIX: 9-10</t>
+  </si>
+  <si>
+    <t>Булат:  Min 9</t>
+  </si>
+  <si>
+    <t>Моделирование: 9-10</t>
+  </si>
+  <si>
+    <t>Дергач: min7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +147,16 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +241,32 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FFFFD965"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -243,11 +296,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -319,12 +387,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,7 +411,17 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -569,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -838,7 +910,7 @@
       <c r="H9" s="24">
         <v>6</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="41">
         <v>7</v>
       </c>
       <c r="J9" s="13">
@@ -885,28 +957,28 @@
       <c r="J10" s="18">
         <v>4</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="38">
         <v>5</v>
       </c>
       <c r="L10" s="39">
         <v>6</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="40">
         <v>7</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="29">
         <v>8</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="29">
         <v>9</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="29">
         <v>10</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="29">
         <v>11</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="29">
         <v>12</v>
       </c>
       <c r="S10" s="13"/>
@@ -940,13 +1012,15 @@
       <c r="J11" s="13">
         <v>8</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
+      <c r="K11" s="30">
+        <v>9</v>
+      </c>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="21" t="s">
@@ -956,46 +1030,85 @@
     <row r="12" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="36"/>
+    <row r="17" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="34"/>
+      <c r="D17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
     </row>
-    <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="37" t="s">
+    <row r="18" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="35" t="s">
         <v>15</v>
       </c>
+      <c r="D18" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="38" t="s">
+    <row r="19" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="36" t="s">
         <v>16</v>
       </c>
+      <c r="D19" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
     </row>
-    <row r="20" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Лабы.xlsx
+++ b/Лабы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\Labs\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CBC1B5-3AFC-414E-BFF6-96FD0E67EC94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D16546-ADC7-4791-B80B-119D4037D16C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,14 +96,14 @@
     <t>Моделирование: 9-10</t>
   </si>
   <si>
-    <t>Дергач: min7</t>
+    <t>Дергач: min4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +155,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,12 +244,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -263,6 +264,60 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -315,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -365,9 +420,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,7 +434,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,19 +462,44 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -641,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -851,17 +927,17 @@
         <v>7</v>
       </c>
       <c r="M7" s="13"/>
-      <c r="N7" s="19">
+      <c r="N7" s="37">
         <v>6</v>
       </c>
       <c r="O7" s="13"/>
-      <c r="P7" s="20">
+      <c r="P7" s="19">
         <v>8</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
-      <c r="T7" s="21" t="s">
+      <c r="T7" s="46" t="s">
         <v>6</v>
       </c>
     </row>
@@ -869,71 +945,71 @@
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
       <c r="T8" s="17"/>
     </row>
     <row r="9" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>2</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>3</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>4</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>5</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <v>6</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="37">
         <v>7</v>
       </c>
       <c r="J9" s="13">
         <v>8</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="39">
         <v>9</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <v>10</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <v>11</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="26" t="s">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -945,40 +1021,40 @@
         <v>1</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="10">
         <v>2</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <v>3</v>
       </c>
       <c r="J10" s="18">
         <v>4</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="36">
         <v>5</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="40">
         <v>6</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="41">
         <v>7</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="38">
         <v>8</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="27">
         <v>9</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="27">
         <v>10</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="27">
         <v>11</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="27">
         <v>12</v>
       </c>
       <c r="S10" s="13"/>
@@ -994,111 +1070,105 @@
       <c r="D11" s="9">
         <v>2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="44">
         <v>3</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="45">
         <v>4</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="42">
         <v>5</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="43">
         <v>6</v>
       </c>
-      <c r="I11" s="13">
-        <v>7</v>
-      </c>
-      <c r="J11" s="13">
-        <v>8</v>
-      </c>
-      <c r="K11" s="30">
-        <v>9</v>
-      </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="21" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="34"/>
-      <c r="D17" s="37" t="s">
+      <c r="B17" s="32"/>
+      <c r="D17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="48"/>
     </row>
     <row r="20" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Лабы.xlsx
+++ b/Лабы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\Labs\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D16546-ADC7-4791-B80B-119D4037D16C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A69133B-0B4A-4B84-9A6F-8BC951057D2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Предметы/Недели</t>
   </si>
@@ -45,9 +45,6 @@
     <t>WINAPI</t>
   </si>
   <si>
-    <t>Да</t>
-  </si>
-  <si>
     <t>Экология</t>
   </si>
   <si>
@@ -97,13 +94,25 @@
   </si>
   <si>
     <t>Дергач: min4</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>РГР</t>
+  </si>
+  <si>
+    <t>ПРАКТИКА</t>
+  </si>
+  <si>
+    <t>ЛАБЫ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,10 +138,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -162,8 +167,21 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,12 +214,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9900FF"/>
-        <bgColor rgb="FF9900FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
@@ -257,12 +269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
@@ -317,6 +323,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FF9900FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FFECECEC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -386,10 +416,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -398,108 +431,122 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -718,14 +765,15 @@
   <dimension ref="B1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.4140625" customWidth="1"/>
-    <col min="3" max="19" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.9140625" customWidth="1"/>
+    <col min="4" max="19" width="7.6640625" customWidth="1"/>
     <col min="20" max="20" width="16.4140625" customWidth="1"/>
     <col min="21" max="26" width="7.6640625" customWidth="1"/>
   </cols>
@@ -766,13 +814,13 @@
       <c r="K4" s="6">
         <v>9</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="45">
         <v>10</v>
       </c>
       <c r="M4" s="3">
         <v>11</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="46">
         <v>12</v>
       </c>
       <c r="O4" s="3">
@@ -790,7 +838,7 @@
       <c r="S4" s="3">
         <v>17</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -798,58 +846,58 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>4</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>5</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>6</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>7</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>8</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>9</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>10</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>11</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>12</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>13</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <v>14</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <v>15</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="12">
         <v>16</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="12">
         <v>17</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="54" t="s">
         <v>3</v>
       </c>
     </row>
@@ -857,318 +905,328 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <v>5</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <v>6</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="14">
         <v>7</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>8</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>9</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <v>10</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <v>11</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="12">
         <v>12</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="12">
         <v>13</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="17"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="53" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="9">
+      <c r="C7" s="12"/>
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="9">
+      <c r="E7" s="12"/>
+      <c r="F7" s="8">
         <v>2</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="9">
+      <c r="G7" s="12"/>
+      <c r="H7" s="8">
         <v>3</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="10">
+      <c r="I7" s="12"/>
+      <c r="J7" s="9">
         <v>4</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="18">
+      <c r="K7" s="12"/>
+      <c r="L7" s="15">
         <v>7</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="37">
+      <c r="M7" s="12"/>
+      <c r="N7" s="47">
         <v>6</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="19">
+      <c r="O7" s="12"/>
+      <c r="P7" s="48">
         <v>8</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="46" t="s">
-        <v>6</v>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="52" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="55" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>3</v>
+      </c>
+      <c r="F9" s="18">
+        <v>4</v>
+      </c>
+      <c r="G9" s="18">
+        <v>5</v>
+      </c>
+      <c r="H9" s="19">
+        <v>6</v>
+      </c>
+      <c r="I9" s="33">
+        <v>7</v>
+      </c>
+      <c r="J9" s="35">
         <v>8</v>
       </c>
-      <c r="C9" s="22">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22">
-        <v>2</v>
-      </c>
-      <c r="E9" s="22">
-        <v>3</v>
-      </c>
-      <c r="F9" s="22">
-        <v>4</v>
-      </c>
-      <c r="G9" s="22">
-        <v>5</v>
-      </c>
-      <c r="H9" s="23">
-        <v>6</v>
-      </c>
-      <c r="I9" s="37">
-        <v>7</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="K9" s="35">
+        <v>9</v>
+      </c>
+      <c r="L9" s="16">
+        <v>10</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="39">
-        <v>9</v>
-      </c>
-      <c r="L9" s="19">
-        <v>10</v>
-      </c>
-      <c r="M9" s="19">
-        <v>11</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="14" t="s">
-        <v>6</v>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="51" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="9">
+        <v>2</v>
+      </c>
+      <c r="I10" s="22">
+        <v>3</v>
+      </c>
+      <c r="J10" s="15">
+        <v>4</v>
+      </c>
+      <c r="K10" s="32">
+        <v>5</v>
+      </c>
+      <c r="L10" s="36">
+        <v>6</v>
+      </c>
+      <c r="M10" s="50">
+        <v>7</v>
+      </c>
+      <c r="N10" s="35">
+        <v>8</v>
+      </c>
+      <c r="O10" s="34">
+        <v>9</v>
+      </c>
+      <c r="P10" s="34">
         <v>10</v>
       </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="10">
-        <v>2</v>
-      </c>
-      <c r="I10" s="26">
-        <v>3</v>
-      </c>
-      <c r="J10" s="18">
-        <v>4</v>
-      </c>
-      <c r="K10" s="36">
-        <v>5</v>
-      </c>
-      <c r="L10" s="40">
-        <v>6</v>
-      </c>
-      <c r="M10" s="41">
-        <v>7</v>
-      </c>
-      <c r="N10" s="38">
-        <v>8</v>
-      </c>
-      <c r="O10" s="27">
-        <v>9</v>
-      </c>
-      <c r="P10" s="27">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="23">
         <v>11</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="23">
         <v>12</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="17"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="53" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
         <v>1</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="39">
         <v>3</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="40">
         <v>4</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="37">
         <v>5</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="38">
         <v>6</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="20" t="s">
-        <v>6</v>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="53" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="29" t="s">
-        <v>12</v>
+      <c r="B14" s="25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="30" t="s">
-        <v>13</v>
+      <c r="B15" s="26" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="31" t="s">
-        <v>14</v>
+      <c r="B16" s="27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="32"/>
-      <c r="D17" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="B17" s="28"/>
+      <c r="D17" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="48"/>
+      <c r="B19" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="47"/>
+      <c r="D20" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="49"/>
+      <c r="D21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="49"/>
+      <c r="D22" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="47"/>
+      <c r="D23" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="41"/>
     </row>
     <row r="24" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2149,6 +2207,6 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Лабы.xlsx
+++ b/Лабы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\Labs\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A69133B-0B4A-4B84-9A6F-8BC951057D2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD75614-0097-43CC-85BB-4B6007092B32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Предметы/Недели</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Дергач: min4</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>РГР</t>
@@ -112,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +177,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,12 +297,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF0070C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
@@ -348,6 +347,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FFF4B083"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFF4B083"/>
       </patternFill>
     </fill>
   </fills>
@@ -400,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -434,12 +445,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,56 +500,65 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -764,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -814,13 +828,13 @@
       <c r="K4" s="6">
         <v>9</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="42">
         <v>10</v>
       </c>
       <c r="M4" s="3">
         <v>11</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="43">
         <v>12</v>
       </c>
       <c r="O4" s="3">
@@ -897,7 +911,7 @@
       <c r="S5" s="12">
         <v>17</v>
       </c>
-      <c r="T5" s="54" t="s">
+      <c r="T5" s="51" t="s">
         <v>3</v>
       </c>
     </row>
@@ -917,13 +931,13 @@
       <c r="F6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="54">
         <v>5</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="55">
         <v>6</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="56">
         <v>7</v>
       </c>
       <c r="J6" s="12">
@@ -948,8 +962,8 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="53" t="s">
-        <v>23</v>
+      <c r="T6" s="52" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -973,50 +987,50 @@
         <v>4</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <v>7</v>
       </c>
       <c r="M7" s="12"/>
-      <c r="N7" s="47">
+      <c r="N7" s="44">
         <v>6</v>
       </c>
       <c r="O7" s="12"/>
-      <c r="P7" s="48">
+      <c r="P7" s="45">
         <v>8</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="52" t="s">
-        <v>24</v>
+      <c r="T7" s="49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="55" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="52" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1024,49 +1038,47 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>3</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>4</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>5</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>6</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <v>7</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="33">
         <v>8</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="33">
         <v>9</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="53">
         <v>10</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="48" t="s">
         <v>23</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="51" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1077,45 +1089,45 @@
         <v>1</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="9">
         <v>2</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="20">
         <v>3</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="13">
         <v>4</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="30">
         <v>5</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="34">
         <v>6</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="47">
         <v>7</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="32">
         <v>8</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="32">
         <v>9</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="32">
         <v>10</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="21">
         <v>11</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="21">
         <v>12</v>
       </c>
       <c r="S10" s="12"/>
-      <c r="T10" s="53" t="s">
-        <v>24</v>
+      <c r="T10" s="50" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1128,105 +1140,105 @@
       <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="37">
         <v>3</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="37">
         <v>4</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="35">
         <v>5</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="36">
         <v>6</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="53" t="s">
-        <v>24</v>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="50" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="28"/>
-      <c r="D17" s="31" t="s">
+      <c r="B17" s="26"/>
+      <c r="D17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="41"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="42"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="41"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="43"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="43"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="41"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
